--- a/dist/dataAll.xlsx
+++ b/dist/dataAll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="333">
   <si>
     <t>患者例</t>
   </si>
@@ -1004,6 +1004,15 @@
   </si>
   <si>
     <t>陽性者が発生した市内高齢者施設の関係者</t>
+  </si>
+  <si>
+    <t>456例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>443例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>市内死亡10例目</t>
   </si>
 </sst>
 </file>
@@ -7453,6 +7462,9 @@
       <c r="H210" t="s">
         <v>239</v>
       </c>
+      <c r="I210" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211">
@@ -7479,6 +7491,9 @@
       <c r="H211" t="s">
         <v>239</v>
       </c>
+      <c r="I211" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212">
@@ -7505,6 +7520,9 @@
       <c r="H212" t="s">
         <v>239</v>
       </c>
+      <c r="I212" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213">
@@ -7531,6 +7549,9 @@
       <c r="H213" t="s">
         <v>239</v>
       </c>
+      <c r="I213" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214">
@@ -7557,6 +7578,9 @@
       <c r="H214" t="s">
         <v>239</v>
       </c>
+      <c r="I214" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215">
@@ -7583,6 +7607,9 @@
       <c r="H215" t="s">
         <v>239</v>
       </c>
+      <c r="I215" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216">
@@ -7609,6 +7636,9 @@
       <c r="H216" t="s">
         <v>239</v>
       </c>
+      <c r="I216" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217">
@@ -7635,6 +7665,9 @@
       <c r="H217" t="s">
         <v>239</v>
       </c>
+      <c r="I217" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218">
@@ -7661,6 +7694,9 @@
       <c r="H218" t="s">
         <v>239</v>
       </c>
+      <c r="I218" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219">
@@ -7687,6 +7723,9 @@
       <c r="H219" t="s">
         <v>246</v>
       </c>
+      <c r="I219" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220">
@@ -7713,6 +7752,9 @@
       <c r="H220" t="s">
         <v>239</v>
       </c>
+      <c r="I220" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221">
@@ -7739,6 +7781,9 @@
       <c r="H221" t="s">
         <v>246</v>
       </c>
+      <c r="I221" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222">
@@ -7765,6 +7810,9 @@
       <c r="H222" t="s">
         <v>239</v>
       </c>
+      <c r="I222" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223">
@@ -7791,6 +7839,9 @@
       <c r="H223" t="s">
         <v>239</v>
       </c>
+      <c r="I223" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224">
@@ -7817,8 +7868,11 @@
       <c r="H224" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="I224" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225">
         <v>472</v>
       </c>
@@ -7843,8 +7897,11 @@
       <c r="H225" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="I225" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226">
         <v>471</v>
       </c>
@@ -7869,8 +7926,11 @@
       <c r="H226" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="I226" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227">
         <v>470</v>
       </c>
@@ -7895,8 +7955,11 @@
       <c r="H227" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="I227" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228">
         <v>469</v>
       </c>
@@ -7921,8 +7984,11 @@
       <c r="H228" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="I228" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229">
         <v>468</v>
       </c>
@@ -7948,7 +8014,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:9">
       <c r="A230">
         <v>467</v>
       </c>
@@ -7974,7 +8040,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:9">
       <c r="A231">
         <v>466</v>
       </c>
@@ -8000,7 +8066,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:9">
       <c r="A232">
         <v>465</v>
       </c>
@@ -8026,7 +8092,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:9">
       <c r="A233">
         <v>464</v>
       </c>
@@ -8052,7 +8118,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:9">
       <c r="A234">
         <v>463</v>
       </c>
@@ -8078,7 +8144,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:9">
       <c r="A235">
         <v>462</v>
       </c>
@@ -8104,7 +8170,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:9">
       <c r="A236">
         <v>461</v>
       </c>
@@ -8130,7 +8196,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:9">
       <c r="A237">
         <v>460</v>
       </c>
@@ -8156,7 +8222,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:9">
       <c r="A238">
         <v>459</v>
       </c>
@@ -8182,7 +8248,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:9">
       <c r="A239">
         <v>458</v>
       </c>
@@ -8208,7 +8274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:9">
       <c r="A240">
         <v>457</v>
       </c>
